--- a/Case.xlsx
+++ b/Case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\24Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\25Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BC574D-8E47-439B-B439-4ED4B85B96F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C012C1DA-19AE-44E1-B646-F7B6DAC2F192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="11" xr2:uid="{F7C25EE7-39BD-4AF9-9AAE-DD3D9D7CE00C}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="211">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -382,6 +382,9 @@
     <t>LOCATION</t>
   </si>
   <si>
+    <t>DOCUMENTATION_STATUS</t>
+  </si>
+  <si>
     <t>SCHEDULED_NEXT_IN_PERSON_CONTACT_VISIT</t>
   </si>
   <si>
@@ -410,6 +413,9 @@
   </si>
   <si>
     <t>In-Person</t>
+  </si>
+  <si>
+    <t>In Draft</t>
   </si>
   <si>
     <t>No</t>
@@ -1199,7 +1205,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
@@ -1415,39 +1421,39 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>102</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B2" s="20">
         <v>1</v>
@@ -1475,7 +1481,7 @@
         <v>58</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>58</v>
@@ -1509,14 +1515,14 @@
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B5" s="20">
         <v>1</v>
@@ -1544,7 +1550,7 @@
         <v>58</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
@@ -1561,7 +1567,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
@@ -1685,6 +1691,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -1696,17 +1713,6 @@
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1743,25 +1749,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>79</v>
@@ -1772,7 +1778,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1787,19 +1793,19 @@
         <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>51</v>
@@ -1837,7 +1843,7 @@
         <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>51</v>
@@ -1875,7 +1881,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>51</v>
@@ -1892,7 +1898,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B5" s="14">
         <v>1</v>
@@ -1919,7 +1925,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>51</v>
@@ -1930,7 +1936,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B6" s="14">
         <v>1</v>
@@ -1957,7 +1963,7 @@
         <v>21</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>51</v>
@@ -1995,7 +2001,7 @@
         <v>21</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>51</v>
@@ -2017,11 +2023,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87BC585-1F44-4200-B8EC-30C288AC8195}">
-  <dimension ref="A1:AE28"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ28" sqref="AJ28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2032,7 +2038,7 @@
     <col min="4" max="4" width="16.1796875" customWidth="1"/>
     <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
@@ -2073,85 +2079,85 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J1" t="s">
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="R1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="S1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="T1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="U1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="V1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="W1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="X1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Y1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z1" t="s">
         <v>43</v>
       </c>
       <c r="AA1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AB1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AC1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AD1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AE1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
@@ -2192,10 +2198,10 @@
         <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s">
         <v>21</v>
@@ -2251,10 +2257,10 @@
         <v>51</v>
       </c>
       <c r="M3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O3" t="s">
         <v>21</v>
@@ -2310,7 +2316,7 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2369,7 +2375,7 @@
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N5" t="s">
         <v>15</v>
@@ -2428,7 +2434,7 @@
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N6" t="s">
         <v>15</v>
@@ -2487,7 +2493,7 @@
         <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N7" t="s">
         <v>15</v>
@@ -2546,7 +2552,7 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N8" t="s">
         <v>15</v>
@@ -2605,7 +2611,7 @@
         <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N9" t="s">
         <v>15</v>
@@ -2664,7 +2670,7 @@
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N10" t="s">
         <v>15</v>
@@ -2723,7 +2729,7 @@
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N11" t="s">
         <v>15</v>
@@ -2782,7 +2788,7 @@
         <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N12" t="s">
         <v>15</v>
@@ -2841,7 +2847,7 @@
         <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N13" t="s">
         <v>15</v>
@@ -2900,7 +2906,7 @@
         <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N14" t="s">
         <v>15</v>
@@ -2959,7 +2965,7 @@
         <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N15" t="s">
         <v>15</v>
@@ -3018,7 +3024,7 @@
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N16" t="s">
         <v>15</v>
@@ -3077,7 +3083,7 @@
         <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N17" t="s">
         <v>15</v>
@@ -3136,7 +3142,7 @@
         <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s">
         <v>15</v>
@@ -3195,7 +3201,7 @@
         <v>15</v>
       </c>
       <c r="M19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N19" t="s">
         <v>15</v>
@@ -3254,7 +3260,7 @@
         <v>15</v>
       </c>
       <c r="M20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N20" t="s">
         <v>15</v>
@@ -3313,7 +3319,7 @@
         <v>15</v>
       </c>
       <c r="M21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N21" t="s">
         <v>15</v>
@@ -3372,7 +3378,7 @@
         <v>15</v>
       </c>
       <c r="M22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N22" t="s">
         <v>15</v>
@@ -3431,10 +3437,10 @@
         <v>51</v>
       </c>
       <c r="M23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s">
         <v>21</v>
@@ -3490,10 +3496,10 @@
         <v>51</v>
       </c>
       <c r="M24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O24" t="s">
         <v>21</v>
@@ -3513,7 +3519,7 @@
     </row>
     <row r="25" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B25" s="14">
         <v>1</v>
@@ -3549,10 +3555,10 @@
         <v>51</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O25" s="14" t="s">
         <v>21</v>
@@ -3584,7 +3590,7 @@
     </row>
     <row r="26" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B26" s="18">
         <v>1</v>
@@ -3620,7 +3626,7 @@
         <v>51</v>
       </c>
       <c r="M26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N26" s="18" t="s">
         <v>15</v>
@@ -3649,7 +3655,7 @@
     </row>
     <row r="27" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B27" s="18">
         <v>1</v>
@@ -3685,125 +3691,196 @@
         <v>51</v>
       </c>
       <c r="M27" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="S27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="T27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="U27" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="14">
+        <v>2</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="N28" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="N27" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q27" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="R27" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="S27" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="T27" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="U27" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28" s="21">
-        <v>1</v>
-      </c>
-      <c r="C28" s="21">
-        <v>1</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="N28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="O28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="P28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="R28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="S28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="T28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="U28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="V28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="W28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="X28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE28" s="21" t="s">
+      <c r="O28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+    </row>
+    <row r="29" spans="1:31" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="21">
+        <v>1</v>
+      </c>
+      <c r="C29" s="21">
+        <v>1</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="P29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="R29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="S29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="T29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="U29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="V29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="W29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="X29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE29" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5154,10 +5231,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA7BF84-6E46-4A01-AAF3-6F9166D7426A}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5175,13 +5252,13 @@
     <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5237,13 +5314,16 @@
         <v>113</v>
       </c>
       <c r="S1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -5302,10 +5382,13 @@
         <v>15</v>
       </c>
       <c r="T2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -5328,42 +5411,45 @@
         <v>21</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M3" t="s">
         <v>49</v>
       </c>
       <c r="N3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q3" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="R3" t="s">
         <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5403,7 +5489,7 @@
         <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -5463,70 +5549,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="V1" s="14" t="s">
         <v>86</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Z1" s="14" t="s">
         <v>79</v>
@@ -5534,7 +5620,7 @@
     </row>
     <row r="2" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5549,7 +5635,7 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
         <v>51</v>
@@ -5588,7 +5674,7 @@
         <v>47</v>
       </c>
       <c r="T2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="U2" t="s">
         <v>47</v>
@@ -5603,7 +5689,7 @@
         <v>47</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>51</v>
@@ -5611,7 +5697,7 @@
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" s="14">
         <v>1</v>
@@ -5626,7 +5712,7 @@
         <v>47</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>51</v>
@@ -5666,7 +5752,7 @@
         <v>47</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="U3" s="14" t="s">
         <v>47</v>
@@ -5681,7 +5767,7 @@
         <v>47</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Z3" s="14" t="s">
         <v>51</v>
@@ -5689,7 +5775,7 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" s="14">
         <v>1</v>
@@ -5704,7 +5790,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>15</v>
@@ -5800,7 +5886,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -5823,12 +5909,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6049,19 +6136,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97CBD9C-DB7F-4B2F-B940-564A9866812B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6281C2F4-2CB2-4F59-911C-2BDAFF601D02}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6086,11 +6174,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6281C2F4-2CB2-4F59-911C-2BDAFF601D02}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97CBD9C-DB7F-4B2F-B940-564A9866812B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
